--- a/02_客户资料/事业项目部导入表/数据初始化收集模板（完整版） -事业部.xlsx
+++ b/02_客户资料/事业项目部导入表/数据初始化收集模板（完整版） -事业部.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="415">
   <si>
     <t>合同项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,1283 +364,1256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺义汽车城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国中铁航空港建设集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺义汽车城（幕墙工程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2011-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2011-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2011-07增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山君熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京和平简商贸有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方景园工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中直机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大万综合楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京嘉泽生态园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿嘉会所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙景龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿嘉商务楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科智地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西908综合楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2011-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2010-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2010-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2010-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2009-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴城莲花酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-09</t>
+  </si>
+  <si>
+    <t>呼市中海御龙湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-10</t>
+  </si>
+  <si>
+    <t>北京军区装备部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高元生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-10增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴教委会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-12</t>
+  </si>
+  <si>
+    <t>西藏自然博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王培俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-12增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西城区扩建办公楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩魁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-14</t>
+  </si>
+  <si>
+    <t>平阳景苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2012-15</t>
+  </si>
+  <si>
+    <t>丹东万达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜外心血管玻璃幕墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-02</t>
+  </si>
+  <si>
+    <t>唐山君熙太和石材幕墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-03</t>
+  </si>
+  <si>
+    <t>神农架机场航站楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-04</t>
+  </si>
+  <si>
+    <t>渤海船舶职业学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-05</t>
+  </si>
+  <si>
+    <t>B1-01、B1-02厂房外墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-05增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌物流中心B02厂房外墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漯河驻京办事处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周成军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵永辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-07</t>
+  </si>
+  <si>
+    <t>呼市宇生苑售楼中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-08</t>
+  </si>
+  <si>
+    <t>办公综合楼（冠京先河）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-09</t>
+  </si>
+  <si>
+    <t>北京总参塔院干休所住宅楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-10</t>
+  </si>
+  <si>
+    <t>西安中海国际社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-11</t>
+  </si>
+  <si>
+    <t>廊坊幸福园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门头沟天台山居住项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-13</t>
+  </si>
+  <si>
+    <t>阜外心血管后勤服务中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-14</t>
+  </si>
+  <si>
+    <t>内蒙金隅丽港售楼处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袭祥林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空城北区一号门房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北七家公建住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡水大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金隅时代二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-19</t>
+  </si>
+  <si>
+    <t>无锡万达文化旅游展示中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张友良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-20</t>
+  </si>
+  <si>
+    <t>卢沟桥小瓦窑村1#回迁房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-21</t>
+  </si>
+  <si>
+    <t>创新国际2#5#6#8#楼铝合金门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-22</t>
+  </si>
+  <si>
+    <t>东莞厚街万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-23</t>
+  </si>
+  <si>
+    <t>曲美家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫琳轶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-24</t>
+  </si>
+  <si>
+    <t>南昌万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九棵树三标段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和泓四季9#外墙装饰及门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-02及增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-17及增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-15及增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同国金中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-04</t>
+  </si>
+  <si>
+    <t>黄石万达广场设计合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-05</t>
+  </si>
+  <si>
+    <t>天津河东万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-06</t>
+  </si>
+  <si>
+    <t>沈阳太原街万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-07</t>
+  </si>
+  <si>
+    <t>沈阳铁西万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆巴南万达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-09</t>
+  </si>
+  <si>
+    <t>兰州理工大学设计合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-10及增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通辽万达广场商业设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞厚街万达采光顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-12</t>
+  </si>
+  <si>
+    <t>北七家TBD云集团项目幕墙工程（标段3）合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-13</t>
+  </si>
+  <si>
+    <t>南昌A101行政办公楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-14</t>
+  </si>
+  <si>
+    <t>合肥万达文化旅游城A2地块设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-15</t>
+  </si>
+  <si>
+    <t>中科院新园区8标段（体育中心、礼堂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-16</t>
+  </si>
+  <si>
+    <t>呼和浩特幕墙安全隐患整改设计合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-17</t>
+  </si>
+  <si>
+    <t>通辽万达广场销售及回迁物业设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿州万达广场售楼处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-18</t>
+  </si>
+  <si>
+    <t>桂林万达城展示中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-19</t>
+  </si>
+  <si>
+    <t>SY2014-20</t>
+  </si>
+  <si>
+    <t>泰安万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-21</t>
+  </si>
+  <si>
+    <t>三利.中和城售楼处及样板间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤长华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-22</t>
+  </si>
+  <si>
+    <t>广州南沙万达广场售楼处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-23</t>
+  </si>
+  <si>
+    <t>苏州吴中万达广场样板段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-24</t>
+  </si>
+  <si>
+    <t>冠京饭店改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-25</t>
+  </si>
+  <si>
+    <t>南通港闸万达售楼处设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-26</t>
+  </si>
+  <si>
+    <t>青岛CBD万达安全隐患整改设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-27</t>
+  </si>
+  <si>
+    <t>乌鲁木齐经开万达广场设计合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-28</t>
+  </si>
+  <si>
+    <t>中关村e世界大厦玻璃幕墙改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨立国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-29</t>
+  </si>
+  <si>
+    <t>大连开发区万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-30</t>
+  </si>
+  <si>
+    <t>郫县万达广场销售中心外幕墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-31</t>
+  </si>
+  <si>
+    <t>大兴区黄村镇四-六街安置房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-32</t>
+  </si>
+  <si>
+    <t>西山9号院采光顶改造工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-33</t>
+  </si>
+  <si>
+    <t>广州增城万达文化旅游展示中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-34</t>
+  </si>
+  <si>
+    <t>中国科学院大学玉泉营小区改造工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-35</t>
+  </si>
+  <si>
+    <t>十堰万达售楼处设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2013-12及增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-08及增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY2014-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗亭购销合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京九天装饰有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西洪都航空工业集团有限责任公司院内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海力建设集团有限公司(甲方1）                中国航空国际建设有限公司（甲方2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵永辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦岛海上海莲花商务酒店有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦岛志远事业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵永辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴城公安局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴城公安局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山君熙房地产开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山丰南区</t>
+  </si>
+  <si>
+    <t>呼和浩特市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特市中海宏洋地产有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京源生缘门窗有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高元生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高元生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中航天建设工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市丰台区东大街41号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京源泰力建筑装饰工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市丰台区东大街42号</t>
+  </si>
+  <si>
+    <t>大兴区教育委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市大兴区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏自治区拉萨市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国机械工业建设集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京玉林强钢化玻璃有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王培彦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市西城区西内冠英园西区联络处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京建工集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京嘉世弘商贸有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩魁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩魁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西恒实平阳房地产开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦山大街以北，立交新路以西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹东万达广场有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三河市汇远通达装饰有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门头沟区永定镇冯村西里阜外医院西山院区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国医学科学院阜外心血管医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农架林区红坪镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京金港机场建设有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海船舶职业学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌航空城航空路以东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西洪都航空工业股份有限公司</t>
+  </si>
+  <si>
+    <t>北京市西城区西直门内大街南草厂街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漯河市人民政府驻北京联络处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京荣发建筑装饰工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特市新城区南店滨水新村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古南璞房地产开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市丰台区角门北路6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市冠京先河建筑工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国新兴保信建设总公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区花园路甲1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安市曲江新区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海兴业（西安）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京华阜家园装饰装修有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈明霞 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊市北凤道以北，永兴路以东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊市京御幸福房地产开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门头沟区新城城子地区21-218地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市天台山房地产开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特市赛罕区南二环以南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古金隅置地投资有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特市龙衣铁艺有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌市高新开发区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西军工思波实业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市昌平区北七家镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京宁科置业有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市丰台区角门北路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京衡水饭店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特市赛罕区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古金隅置业投资有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡万达城投资有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京泽幕工程咨询有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金光成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市丰台区卢沟桥乡小瓦窑村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中建-大成建筑有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东邹平鹤伴二路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东创新置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市厚街镇宝屯、珊美社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞厚街万达广场投资有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北苑路和大屯路交叉口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京曲美馨家商业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市恒铝幕墙装饰工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫琳轶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌万达城投资有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区常青路</t>
+  </si>
+  <si>
+    <t>北京东和伟业房地产开发有限公司</t>
+  </si>
+  <si>
+    <t>北京祁连房地产开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通州区九棵树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同市阳光嘉业房地产开发有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京和平泛华装饰有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏增坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏增坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西省大同迎宾街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海青</t>
+  </si>
+  <si>
     <t>事业一部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺义汽车城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国中铁航空港建设集团有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市顺义区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市顺义区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺义汽车城（幕墙工程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2011-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2011-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2011-07增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐山君熙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业一部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马冬雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京和平简商贸有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四方景园工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘海青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘海青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘海青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中直机关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大万综合楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京嘉泽生态园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿嘉会所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>孙景龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿嘉商务楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科智地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西908综合楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2011-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2010-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2010-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2010-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2009-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴城莲花酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业三部</t>
   </si>
   <si>
     <t>事业五部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-09</t>
-  </si>
-  <si>
-    <t>呼市中海御龙湾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-10</t>
-  </si>
-  <si>
-    <t>北京军区装备部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业十部</t>
   </si>
   <si>
     <t>事业十二部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈建中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高元生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-10增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大兴教委会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业十部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业十部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-12</t>
-  </si>
-  <si>
-    <t>西藏自然博物馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业二部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王培俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-12增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西城区扩建办公楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业十六部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩魁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-14</t>
-  </si>
-  <si>
-    <t>平阳景苑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙景龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2012-15</t>
-  </si>
-  <si>
-    <t>丹东万达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业十一部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李文达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阜外心血管玻璃幕墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-02</t>
-  </si>
-  <si>
-    <t>唐山君熙太和石材幕墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-03</t>
-  </si>
-  <si>
-    <t>神农架机场航站楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业三部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-04</t>
-  </si>
-  <si>
-    <t>渤海船舶职业学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-05</t>
-  </si>
-  <si>
-    <t>B1-01、B1-02厂房外墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-05增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌物流中心B02厂房外墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漯河驻京办事处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业十五部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周成军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵永辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-07</t>
-  </si>
-  <si>
-    <t>呼市宇生苑售楼中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-08</t>
-  </si>
-  <si>
-    <t>办公综合楼（冠京先河）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-09</t>
-  </si>
-  <si>
-    <t>北京总参塔院干休所住宅楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-10</t>
-  </si>
-  <si>
-    <t>西安中海国际社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业十三部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-11</t>
-  </si>
-  <si>
-    <t>廊坊幸福园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门头沟天台山居住项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-13</t>
-  </si>
-  <si>
-    <t>阜外心血管后勤服务中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-14</t>
-  </si>
-  <si>
-    <t>内蒙金隅丽港售楼处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业二十部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袭祥林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航空城北区一号门房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北七家公建住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡水大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金隅时代二期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-19</t>
-  </si>
-  <si>
-    <t>无锡万达文化旅游展示中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业二十三部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张友良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-20</t>
-  </si>
-  <si>
-    <t>卢沟桥小瓦窑村1#回迁房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-21</t>
-  </si>
-  <si>
-    <t>创新国际2#5#6#8#楼铝合金门窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-22</t>
-  </si>
-  <si>
-    <t>东莞厚街万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-23</t>
-  </si>
-  <si>
-    <t>曲美家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业二十二部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫琳轶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-24</t>
-  </si>
-  <si>
-    <t>南昌万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九棵树三标段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和泓四季9#外墙装饰及门窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-02及增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-17及增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-15及增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大同国金中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业十九部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-04</t>
-  </si>
-  <si>
-    <t>黄石万达广场设计合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-05</t>
-  </si>
-  <si>
-    <t>天津河东万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-06</t>
-  </si>
-  <si>
-    <t>沈阳太原街万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-07</t>
-  </si>
-  <si>
-    <t>沈阳铁西万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆巴南万达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-09</t>
-  </si>
-  <si>
-    <t>兰州理工大学设计合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-10及增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通辽万达广场商业设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞厚街万达采光顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-12</t>
-  </si>
-  <si>
-    <t>北七家TBD云集团项目幕墙工程（标段3）合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-13</t>
-  </si>
-  <si>
-    <t>南昌A101行政办公楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-14</t>
-  </si>
-  <si>
-    <t>合肥万达文化旅游城A2地块设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-15</t>
-  </si>
-  <si>
-    <t>中科院新园区8标段（体育中心、礼堂）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业十七部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-16</t>
-  </si>
-  <si>
-    <t>呼和浩特幕墙安全隐患整改设计合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-17</t>
-  </si>
-  <si>
-    <t>通辽万达广场销售及回迁物业设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿州万达广场售楼处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-18</t>
-  </si>
-  <si>
-    <t>桂林万达城展示中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-19</t>
-  </si>
-  <si>
-    <t>SY2014-20</t>
-  </si>
-  <si>
-    <t>泰安万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-21</t>
-  </si>
-  <si>
-    <t>三利.中和城售楼处及样板间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业二十九部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤长华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-22</t>
-  </si>
-  <si>
-    <t>广州南沙万达广场售楼处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-23</t>
-  </si>
-  <si>
-    <t>苏州吴中万达广场样板段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-24</t>
-  </si>
-  <si>
-    <t>冠京饭店改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-25</t>
-  </si>
-  <si>
-    <t>南通港闸万达售楼处设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-26</t>
-  </si>
-  <si>
-    <t>青岛CBD万达安全隐患整改设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-27</t>
-  </si>
-  <si>
-    <t>乌鲁木齐经开万达广场设计合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-28</t>
-  </si>
-  <si>
-    <t>中关村e世界大厦玻璃幕墙改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事业二十五部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨立国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-29</t>
-  </si>
-  <si>
-    <t>大连开发区万达广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙景龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-30</t>
-  </si>
-  <si>
-    <t>郫县万达广场销售中心外幕墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-31</t>
-  </si>
-  <si>
-    <t>大兴区黄村镇四-六街安置房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-32</t>
-  </si>
-  <si>
-    <t>西山9号院采光顶改造工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-33</t>
-  </si>
-  <si>
-    <t>广州增城万达文化旅游展示中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-34</t>
-  </si>
-  <si>
-    <t>中国科学院大学玉泉营小区改造工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-35</t>
-  </si>
-  <si>
-    <t>十堰万达售楼处设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2013-12及增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-08及增1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY2014-36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗亭购销合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京九天装饰有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西洪都航空工业集团有限责任公司院内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海力建设集团有限公司(甲方1）                中国航空国际建设有限公司（甲方2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵永辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦岛海上海莲花商务酒店有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦岛志远事业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵永辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴城公安局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴城公安局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐山君熙房地产开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐山丰南区</t>
-  </si>
-  <si>
-    <t>呼和浩特市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼和浩特市中海宏洋地产有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京源生缘门窗有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高元生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高元生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中航天建设工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市丰台区东大街41号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京源泰力建筑装饰工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈建中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈建中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市丰台区东大街42号</t>
-  </si>
-  <si>
-    <t>大兴区教育委员会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市大兴区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西藏自治区拉萨市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国机械工业建设集团有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京玉林强钢化玻璃有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王培彦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市西城区西内冠英园西区联络处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京建工集团有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京嘉世弘商贸有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩魁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩魁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西恒实平阳房地产开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦山大街以北，立交新路以西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丹东万达广场有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三河市汇远通达装饰有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李文达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李文达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门头沟区永定镇冯村西里阜外医院西山院区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国医学科学院阜外心血管医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神农架林区红坪镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京金港机场建设有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渤海船舶职业学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌航空城航空路以东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西洪都航空工业股份有限公司</t>
-  </si>
-  <si>
-    <t>北京市西城区西直门内大街南草厂街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漯河市人民政府驻北京联络处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京荣发建筑装饰工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼和浩特市新城区南店滨水新村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古南璞房地产开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市丰台区角门北路6号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市冠京先河建筑工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国新兴保信建设总公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区花园路甲1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安市曲江新区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中海兴业（西安）有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京华阜家园装饰装修有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">陈明霞 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廊坊市北凤道以北，永兴路以东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廊坊市京御幸福房地产开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门头沟区新城城子地区21-218地块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市天台山房地产开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼和浩特市赛罕区南二环以南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古金隅置地投资有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼和浩特市龙衣铁艺有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌市高新开发区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西军工思波实业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市昌平区北七家镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京宁科置业有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市丰台区角门北路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京衡水饭店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼和浩特市赛罕区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古金隅置业投资有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡万达城投资有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京泽幕工程咨询有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金光成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市丰台区卢沟桥乡小瓦窑村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中建-大成建筑有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东邹平鹤伴二路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东创新置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞市厚街镇宝屯、珊美社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞厚街万达广场投资有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北苑路和大屯路交叉口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京曲美馨家商业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津市恒铝幕墙装饰工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫琳轶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌万达城投资有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区常青路</t>
-  </si>
-  <si>
-    <t>北京东和伟业房地产开发有限公司</t>
-  </si>
-  <si>
-    <t>北京祁连房地产开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通州区九棵树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大同市阳光嘉业房地产开发有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京和平泛华装饰有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏增坡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏增坡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西省大同迎宾街</t>
+  </si>
+  <si>
+    <t>事业部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1780,7 +1753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1878,10 +1851,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2186,22 +2155,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
@@ -2248,72 +2217,72 @@
     <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:43" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="38" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
       <c r="AO1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AP1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="39"/>
-    </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" ht="24.95" customHeight="1">
+      <c r="AQ1" s="38"/>
+    </row>
+    <row r="2" spans="1:43" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -2444,7 +2413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:43" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>73</v>
       </c>
@@ -2553,32 +2522,34 @@
       <c r="AP3" s="11"/>
       <c r="AQ3" s="11"/>
     </row>
-    <row r="4" spans="1:43" ht="24.95" customHeight="1">
+    <row r="4" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="13">
@@ -2592,10 +2563,10 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="V4" s="16">
         <v>6.6000000000000003E-2</v>
@@ -2659,32 +2630,34 @@
       <c r="AP4" s="13"/>
       <c r="AQ4" s="13"/>
     </row>
-    <row r="5" spans="1:43" ht="24.95" customHeight="1">
+    <row r="5" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="13">
@@ -2698,10 +2671,10 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V5" s="16">
         <v>6.6000000000000003E-2</v>
@@ -2765,32 +2738,34 @@
       <c r="AP5" s="13"/>
       <c r="AQ5" s="13"/>
     </row>
-    <row r="6" spans="1:43" ht="24.95" customHeight="1">
+    <row r="6" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="D6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="13">
@@ -2804,10 +2779,10 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V6" s="16">
         <v>6.6000000000000003E-2</v>
@@ -2870,32 +2845,34 @@
       <c r="AP6" s="13"/>
       <c r="AQ6" s="13"/>
     </row>
-    <row r="7" spans="1:43" ht="24.95" customHeight="1">
+    <row r="7" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="13">
@@ -2909,10 +2886,10 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V7" s="16">
         <v>6.6000000000000003E-2</v>
@@ -2973,26 +2950,28 @@
       <c r="AP7" s="13"/>
       <c r="AQ7" s="13"/>
     </row>
-    <row r="8" spans="1:43" ht="24.95" customHeight="1">
+    <row r="8" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>84</v>
@@ -3004,7 +2983,7 @@
         <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="13">
@@ -3018,10 +2997,10 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V8" s="16">
         <v>6.6000000000000003E-2</v>
@@ -3085,26 +3064,28 @@
       <c r="AP8" s="13"/>
       <c r="AQ8" s="13"/>
     </row>
-    <row r="9" spans="1:43" s="32" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:43" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
+      <c r="C9" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>84</v>
@@ -3116,7 +3097,7 @@
         <v>83</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="13">
@@ -3130,10 +3111,10 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V9" s="16">
         <v>6.6000000000000003E-2</v>
@@ -3194,26 +3175,28 @@
       <c r="AP9" s="13"/>
       <c r="AQ9" s="13"/>
     </row>
-    <row r="10" spans="1:43" ht="24.95" customHeight="1">
+    <row r="10" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>84</v>
@@ -3225,7 +3208,7 @@
         <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="13">
@@ -3239,10 +3222,10 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V10" s="16">
         <v>6.6000000000000003E-2</v>
@@ -3303,26 +3286,28 @@
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
     </row>
-    <row r="11" spans="1:43" ht="24.95" customHeight="1">
+    <row r="11" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>84</v>
@@ -3334,7 +3319,7 @@
         <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="13">
@@ -3348,10 +3333,10 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V11" s="16">
         <v>0.04</v>
@@ -3413,99 +3398,101 @@
       <c r="AP11" s="13"/>
       <c r="AQ11" s="13"/>
     </row>
-    <row r="12" spans="1:43" ht="24.95" customHeight="1">
+    <row r="12" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34">
+        <v>110</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33">
         <v>10343049.93</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="V12" s="35">
+        <v>179</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="35">
         <f>N12*V12</f>
         <v>362006.74755000003</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="35">
         <v>362006.75</v>
       </c>
-      <c r="Y12" s="36">
+      <c r="Y12" s="35">
         <f t="shared" si="10"/>
         <v>362006.75</v>
       </c>
-      <c r="Z12" s="36">
+      <c r="Z12" s="35">
         <f t="shared" si="16"/>
         <v>-2.4499999708496034E-3</v>
       </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36">
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35">
         <v>7860688.0099999998</v>
       </c>
-      <c r="AD12" s="36">
+      <c r="AD12" s="35">
         <f t="shared" si="11"/>
         <v>7860688.0099999998</v>
       </c>
-      <c r="AE12" s="37">
+      <c r="AE12" s="36">
         <f t="shared" si="12"/>
         <v>0.75999710561196143</v>
       </c>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35">
         <v>7748729.1299999999</v>
       </c>
-      <c r="AI12" s="36">
+      <c r="AI12" s="35">
         <f t="shared" si="3"/>
         <v>7748729.1299999999</v>
       </c>
-      <c r="AJ12" s="35">
+      <c r="AJ12" s="34">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AK12" s="36">
+      <c r="AK12" s="35">
         <f t="shared" si="13"/>
         <v>351663.69761999999</v>
       </c>
-      <c r="AL12" s="36">
+      <c r="AL12" s="35">
         <v>111118.8</v>
       </c>
-      <c r="AM12" s="36">
+      <c r="AM12" s="35">
         <f t="shared" si="14"/>
         <v>111118.8</v>
       </c>
-      <c r="AN12" s="36">
+      <c r="AN12" s="35">
         <f t="shared" si="15"/>
         <v>240544.89762</v>
       </c>
@@ -3513,20 +3500,22 @@
       <c r="AP12" s="13"/>
       <c r="AQ12" s="13"/>
     </row>
-    <row r="13" spans="1:43" ht="24.95" customHeight="1">
+    <row r="13" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3546,10 +3535,10 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>87</v>
+        <v>179</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="V13" s="16">
         <v>6.4000000000000001E-2</v>
@@ -3574,7 +3563,7 @@
       <c r="AC13" s="23">
         <v>72000</v>
       </c>
-      <c r="AD13" s="36">
+      <c r="AD13" s="35">
         <f t="shared" si="11"/>
         <v>72000</v>
       </c>
@@ -3587,7 +3576,7 @@
       <c r="AH13" s="23">
         <v>66960</v>
       </c>
-      <c r="AI13" s="36">
+      <c r="AI13" s="35">
         <f t="shared" si="3"/>
         <v>66960</v>
       </c>
@@ -3613,20 +3602,22 @@
       <c r="AP13" s="13"/>
       <c r="AQ13" s="13"/>
     </row>
-    <row r="14" spans="1:43" ht="24.95" customHeight="1">
+    <row r="14" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3646,10 +3637,10 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>87</v>
+        <v>179</v>
+      </c>
+      <c r="U14" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="V14" s="16">
         <v>8.5999999999999993E-2</v>
@@ -3674,7 +3665,7 @@
       <c r="AC14" s="23">
         <v>496800</v>
       </c>
-      <c r="AD14" s="36">
+      <c r="AD14" s="35">
         <f t="shared" si="11"/>
         <v>496800</v>
       </c>
@@ -3687,7 +3678,7 @@
       <c r="AH14" s="23">
         <v>480537</v>
       </c>
-      <c r="AI14" s="36">
+      <c r="AI14" s="35">
         <f t="shared" si="3"/>
         <v>480537</v>
       </c>
@@ -3710,38 +3701,40 @@
       <c r="AP14" s="13"/>
       <c r="AQ14" s="13"/>
     </row>
-    <row r="15" spans="1:43" ht="24.95" customHeight="1">
+    <row r="15" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="13">
@@ -3755,10 +3748,10 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V15" s="16">
         <v>5.6000000000000001E-2</v>
@@ -3796,7 +3789,7 @@
       <c r="AH15" s="23">
         <v>22653028.379999999</v>
       </c>
-      <c r="AI15" s="36">
+      <c r="AI15" s="35">
         <f t="shared" si="3"/>
         <v>22653028.379999999</v>
       </c>
@@ -3818,105 +3811,107 @@
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
     </row>
-    <row r="16" spans="1:43" ht="24.95" customHeight="1">
+    <row r="16" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>316</v>
+      <c r="E16" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34">
+        <v>290</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33">
         <v>6196000</v>
       </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="V16" s="35">
+        <v>179</v>
+      </c>
+      <c r="U16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="34">
         <v>0.04</v>
       </c>
-      <c r="W16" s="36">
+      <c r="W16" s="35">
         <f>N16*V16</f>
         <v>247840</v>
       </c>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36">
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="36">
+      <c r="Z16" s="35">
         <f t="shared" si="23"/>
         <v>247840</v>
       </c>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36">
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35">
         <v>3500000</v>
       </c>
-      <c r="AD16" s="36">
+      <c r="AD16" s="35">
         <f t="shared" si="24"/>
         <v>3500000</v>
       </c>
-      <c r="AE16" s="37">
+      <c r="AE16" s="36">
         <f>AC16/N16</f>
         <v>0.5648805681084571</v>
       </c>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36">
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35">
         <v>3489148.65</v>
       </c>
-      <c r="AI16" s="36">
+      <c r="AI16" s="35">
         <f t="shared" si="3"/>
         <v>3489148.65</v>
       </c>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="36">
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="35">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36">
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="36">
+      <c r="AN16" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3924,55 +3919,57 @@
       <c r="AP16" s="13"/>
       <c r="AQ16" s="13"/>
     </row>
-    <row r="17" spans="1:43" ht="24.95" customHeight="1">
+    <row r="17" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="D17" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>127</v>
+        <v>298</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>316</v>
+        <v>299</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="13">
         <v>1810092</v>
       </c>
       <c r="O17" s="13"/>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <v>0</v>
       </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>87</v>
+        <v>179</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="V17" s="16">
         <v>0.04</v>
@@ -4001,7 +3998,7 @@
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="AE17" s="37">
+      <c r="AE17" s="36">
         <f>AC17/N17</f>
         <v>0.99442459278312922</v>
       </c>
@@ -4032,111 +4029,113 @@
       <c r="AP17" s="13"/>
       <c r="AQ17" s="13"/>
     </row>
-    <row r="18" spans="1:43" ht="24.95" customHeight="1">
+    <row r="18" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="I18" s="33" t="s">
+      <c r="M18" s="32"/>
+      <c r="N18" s="33">
+        <v>10343049.93</v>
+      </c>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="U18" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34">
-        <v>10343049.93</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="V18" s="35">
+      <c r="V18" s="34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W18" s="36">
+      <c r="W18" s="35">
         <f>N18*V18</f>
         <v>362006.74755000003</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X18" s="35">
         <v>362006.75</v>
       </c>
-      <c r="Y18" s="36">
+      <c r="Y18" s="35">
         <f t="shared" ref="Y18:Y19" si="25">X18</f>
         <v>362006.75</v>
       </c>
-      <c r="Z18" s="36">
+      <c r="Z18" s="35">
         <f t="shared" ref="Z18" si="26">W18-X18</f>
         <v>-2.4499999708496034E-3</v>
       </c>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36">
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35">
         <v>7860688.0099999998</v>
       </c>
-      <c r="AD18" s="36">
+      <c r="AD18" s="35">
         <f t="shared" ref="AD18:AD19" si="27">AC18</f>
         <v>7860688.0099999998</v>
       </c>
-      <c r="AE18" s="37">
+      <c r="AE18" s="36">
         <f t="shared" ref="AE18" si="28">AC18/N18</f>
         <v>0.75999710561196143</v>
       </c>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36">
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35">
         <v>7748729.1299999999</v>
       </c>
-      <c r="AI18" s="36">
+      <c r="AI18" s="35">
         <f t="shared" ref="AI18:AI19" si="29">AH18</f>
         <v>7748729.1299999999</v>
       </c>
-      <c r="AJ18" s="35">
+      <c r="AJ18" s="34">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AK18" s="36">
+      <c r="AK18" s="35">
         <f t="shared" ref="AK18" si="30">N18*AJ18</f>
         <v>351663.69761999999</v>
       </c>
-      <c r="AL18" s="36">
+      <c r="AL18" s="35">
         <v>111118.8</v>
       </c>
-      <c r="AM18" s="36">
+      <c r="AM18" s="35">
         <f t="shared" ref="AM18" si="31">AL18</f>
         <v>111118.8</v>
       </c>
-      <c r="AN18" s="36">
+      <c r="AN18" s="35">
         <f t="shared" ref="AN18" si="32">AK18-AL18</f>
         <v>240544.89762</v>
       </c>
@@ -4144,147 +4143,151 @@
       <c r="AP18" s="13"/>
       <c r="AQ18" s="13"/>
     </row>
-    <row r="19" spans="1:43" ht="24.95" customHeight="1">
+    <row r="19" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="D19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34">
+        <v>129</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33">
         <v>10102313.33</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
       <c r="T19" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="V19" s="35">
+        <v>131</v>
+      </c>
+      <c r="V19" s="34">
         <v>0.05</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="35">
         <f>N19*V19</f>
         <v>505115.66650000005</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="35">
         <v>505116</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="35">
         <f t="shared" si="25"/>
         <v>505116</v>
       </c>
-      <c r="Z19" s="36">
+      <c r="Z19" s="35">
         <f t="shared" si="1"/>
         <v>-0.33349999994970858</v>
       </c>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36">
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35">
         <v>8081848.8399999999</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="35">
         <f t="shared" si="27"/>
         <v>8081848.8399999999</v>
       </c>
-      <c r="AE19" s="37">
+      <c r="AE19" s="36">
         <f t="shared" si="7"/>
         <v>0.79999981944729481</v>
       </c>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36">
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35">
         <v>7517811.9900000002</v>
       </c>
-      <c r="AI19" s="36">
+      <c r="AI19" s="35">
         <f t="shared" si="29"/>
         <v>7517811.9900000002</v>
       </c>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="36">
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="36">
+      <c r="AL19" s="35">
         <v>306828.08</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="35">
         <f>AL19</f>
         <v>306828.08</v>
       </c>
-      <c r="AN19" s="36">
+      <c r="AN19" s="35">
         <v>-306828.08</v>
       </c>
       <c r="AO19" s="23"/>
       <c r="AP19" s="13"/>
       <c r="AQ19" s="13"/>
     </row>
-    <row r="20" spans="1:43" ht="24.95" customHeight="1">
+    <row r="20" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="D20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="13">
@@ -4296,10 +4299,10 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V20" s="16">
         <v>0.04</v>
@@ -4363,38 +4366,40 @@
       <c r="AP20" s="13"/>
       <c r="AQ20" s="13"/>
     </row>
-    <row r="21" spans="1:43" ht="24.95" customHeight="1">
+    <row r="21" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="D21" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="13">
@@ -4406,10 +4411,10 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V21" s="16">
         <v>0.04</v>
@@ -4465,38 +4470,40 @@
       <c r="AP21" s="13"/>
       <c r="AQ21" s="13"/>
     </row>
-    <row r="22" spans="1:43" ht="24.95" customHeight="1">
+    <row r="22" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="D22" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>328</v>
+        <v>315</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="13">
@@ -4508,10 +4515,10 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V22" s="16">
         <v>0.04</v>
@@ -4575,38 +4582,40 @@
       <c r="AP22" s="13"/>
       <c r="AQ22" s="13"/>
     </row>
-    <row r="23" spans="1:43" ht="24.95" customHeight="1">
+    <row r="23" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="D23" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="13">
@@ -4618,10 +4627,10 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V23" s="16">
         <v>0.04</v>
@@ -4685,38 +4694,40 @@
       <c r="AP23" s="13"/>
       <c r="AQ23" s="13"/>
     </row>
-    <row r="24" spans="1:43" ht="24.95" customHeight="1">
+    <row r="24" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="D24" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="13">
@@ -4728,10 +4739,10 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V24" s="16">
         <v>3.5999999999999997E-2</v>
@@ -4791,38 +4802,40 @@
       <c r="AP24" s="13"/>
       <c r="AQ24" s="13"/>
     </row>
-    <row r="25" spans="1:43" ht="24.95" customHeight="1">
+    <row r="25" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="D25" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="13">
@@ -4836,10 +4849,10 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="V25" s="16">
         <v>0.04</v>
@@ -4903,32 +4916,34 @@
       <c r="AP25" s="13"/>
       <c r="AQ25" s="13"/>
     </row>
-    <row r="26" spans="1:43" ht="24.95" customHeight="1">
+    <row r="26" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="13">
@@ -4940,10 +4955,10 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V26" s="16">
         <v>6.5000000000000002E-2</v>
@@ -4999,38 +5014,40 @@
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
     </row>
-    <row r="27" spans="1:43" ht="24.95" customHeight="1">
+    <row r="27" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="13">
@@ -5044,10 +5061,10 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="V27" s="16">
         <v>3.5000000000000003E-2</v>
@@ -5106,38 +5123,40 @@
       <c r="AP27" s="13"/>
       <c r="AQ27" s="13"/>
     </row>
-    <row r="28" spans="1:43" ht="24.95" customHeight="1">
+    <row r="28" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="D28" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="13">
@@ -5151,10 +5170,10 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="V28" s="16">
         <v>0.04</v>
@@ -5218,38 +5237,40 @@
       <c r="AP28" s="13"/>
       <c r="AQ28" s="13"/>
     </row>
-    <row r="29" spans="1:43" ht="24.95" customHeight="1">
+    <row r="29" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>101</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="13">
@@ -5261,10 +5282,10 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V29" s="16">
         <v>3.5000000000000003E-2</v>
@@ -5328,38 +5349,40 @@
       <c r="AP29" s="13"/>
       <c r="AQ29" s="13"/>
     </row>
-    <row r="30" spans="1:43" ht="24.95" customHeight="1">
+    <row r="30" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D30" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="13">
@@ -5371,10 +5394,10 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V30" s="16">
         <v>0.04</v>
@@ -5434,38 +5457,40 @@
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
     </row>
-    <row r="31" spans="1:43" ht="24.95" customHeight="1">
+    <row r="31" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="D31" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>127</v>
+        <v>159</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>316</v>
+        <v>167</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="13">
@@ -5477,10 +5502,10 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V31" s="16">
         <v>0.04</v>
@@ -5544,38 +5569,40 @@
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
     </row>
-    <row r="32" spans="1:43" ht="24.95" customHeight="1">
+    <row r="32" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D32" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="13">
@@ -5587,10 +5614,10 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V32" s="16">
         <v>0.04</v>
@@ -5651,38 +5678,40 @@
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
     </row>
-    <row r="33" spans="1:43" ht="24.95" customHeight="1">
+    <row r="33" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D33" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="13">
@@ -5694,10 +5723,10 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V33" s="16">
         <v>0.04</v>
@@ -5753,38 +5782,40 @@
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
     </row>
-    <row r="34" spans="1:43" ht="24.95" customHeight="1">
+    <row r="34" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="D34" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="13">
@@ -5796,10 +5827,10 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V34" s="16">
         <v>0.04</v>
@@ -5863,38 +5894,40 @@
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
     </row>
-    <row r="35" spans="1:43" ht="24.95" customHeight="1">
+    <row r="35" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="D35" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="13">
@@ -5906,10 +5939,10 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V35" s="16">
         <v>0.04</v>
@@ -5973,38 +6006,40 @@
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
     </row>
-    <row r="36" spans="1:43" ht="24.95" customHeight="1">
+    <row r="36" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="D36" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="13">
@@ -6016,10 +6051,10 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V36" s="16">
         <v>0.04</v>
@@ -6083,38 +6118,40 @@
       <c r="AP36" s="13"/>
       <c r="AQ36" s="13"/>
     </row>
-    <row r="37" spans="1:43" ht="24.95" customHeight="1">
+    <row r="37" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="D37" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="13">
@@ -6126,10 +6163,10 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V37" s="16">
         <v>0.04</v>
@@ -6193,38 +6230,40 @@
       <c r="AP37" s="13"/>
       <c r="AQ37" s="13"/>
     </row>
-    <row r="38" spans="1:43" ht="24.95" customHeight="1">
+    <row r="38" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="13">
@@ -6236,10 +6275,10 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V38" s="16">
         <v>0.04</v>
@@ -6302,26 +6341,28 @@
       <c r="AP38" s="13"/>
       <c r="AQ38" s="13"/>
     </row>
-    <row r="39" spans="1:43" ht="24.95" customHeight="1">
+    <row r="39" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D39" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>84</v>
@@ -6333,7 +6374,7 @@
         <v>83</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="13">
@@ -6345,10 +6386,10 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V39" s="16">
         <v>0.03</v>
@@ -6412,26 +6453,28 @@
       <c r="AP39" s="13"/>
       <c r="AQ39" s="13"/>
     </row>
-    <row r="40" spans="1:43" ht="24.95" customHeight="1">
+    <row r="40" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>84</v>
@@ -6443,7 +6486,7 @@
         <v>83</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="13">
@@ -6456,10 +6499,10 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V40" s="16">
         <v>0.03</v>
@@ -6523,38 +6566,40 @@
       <c r="AP40" s="13"/>
       <c r="AQ40" s="13"/>
     </row>
-    <row r="41" spans="1:43" ht="24.95" customHeight="1">
+    <row r="41" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="D41" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="13">
@@ -6566,10 +6611,10 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V41" s="16">
         <v>0.04</v>
@@ -6633,38 +6678,40 @@
       <c r="AP41" s="13"/>
       <c r="AQ41" s="13"/>
     </row>
-    <row r="42" spans="1:43" ht="24.95" customHeight="1">
+    <row r="42" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>407</v>
+      </c>
       <c r="D42" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="13">
@@ -6676,10 +6723,10 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V42" s="16">
         <v>0.04</v>
@@ -6740,38 +6787,40 @@
       <c r="AP42" s="13"/>
       <c r="AQ42" s="13"/>
     </row>
-    <row r="43" spans="1:43" ht="24.95" customHeight="1">
+    <row r="43" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="13">
@@ -6783,10 +6832,10 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V43" s="16">
         <v>3.5999999999999997E-2</v>
@@ -6842,26 +6891,28 @@
       <c r="AP43" s="13"/>
       <c r="AQ43" s="13"/>
     </row>
-    <row r="44" spans="1:43" ht="24.95" customHeight="1">
+    <row r="44" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>84</v>
@@ -6873,7 +6924,7 @@
         <v>83</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="13">
@@ -6885,10 +6936,10 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V44" s="16">
         <v>3.5999999999999997E-2</v>
@@ -6952,38 +7003,40 @@
       <c r="AP44" s="13"/>
       <c r="AQ44" s="13"/>
     </row>
-    <row r="45" spans="1:43" ht="24.95" customHeight="1">
+    <row r="45" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="D45" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="13">
@@ -6995,10 +7048,10 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V45" s="16">
         <v>0.04</v>
@@ -7062,38 +7115,40 @@
       <c r="AP45" s="13"/>
       <c r="AQ45" s="13"/>
     </row>
-    <row r="46" spans="1:43" ht="24.95" customHeight="1">
+    <row r="46" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>407</v>
+      </c>
       <c r="D46" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="13">
@@ -7105,10 +7160,10 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V46" s="16">
         <v>0.04</v>
@@ -7172,38 +7227,40 @@
       <c r="AP46" s="13"/>
       <c r="AQ46" s="13"/>
     </row>
-    <row r="47" spans="1:43" ht="24.95" customHeight="1">
+    <row r="47" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D47" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="13">
@@ -7215,10 +7272,10 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V47" s="16">
         <v>8.5999999999999993E-2</v>
@@ -7280,38 +7337,40 @@
       <c r="AP47" s="13"/>
       <c r="AQ47" s="13"/>
     </row>
-    <row r="48" spans="1:43" ht="24.95" customHeight="1">
+    <row r="48" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D48" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="13">
@@ -7323,10 +7382,10 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V48" s="16">
         <v>3.5999999999999997E-2</v>
@@ -7390,38 +7449,40 @@
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
     </row>
-    <row r="49" spans="1:43" ht="24.95" customHeight="1">
+    <row r="49" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="D49" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="13">
@@ -7433,10 +7494,10 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U49" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V49" s="16">
         <v>3.5999999999999997E-2</v>
@@ -7500,38 +7561,40 @@
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
     </row>
-    <row r="50" spans="1:43" ht="24.95" customHeight="1">
+    <row r="50" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D50" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="13">
@@ -7543,10 +7606,10 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V50" s="16">
         <v>8.5999999999999993E-2</v>
@@ -7610,38 +7673,40 @@
       <c r="AP50" s="13"/>
       <c r="AQ50" s="13"/>
     </row>
-    <row r="51" spans="1:43" ht="24.95" customHeight="1">
+    <row r="51" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>409</v>
+      </c>
       <c r="D51" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="13">
@@ -7653,10 +7718,10 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V51" s="16">
         <v>3.5999999999999997E-2</v>
@@ -7718,38 +7783,40 @@
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
     </row>
-    <row r="52" spans="1:43" ht="24.95" customHeight="1">
+    <row r="52" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>49</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D52" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="13">
@@ -7761,10 +7828,10 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V52" s="16">
         <v>8.5999999999999993E-2</v>
@@ -7828,26 +7895,28 @@
       <c r="AP52" s="13"/>
       <c r="AQ52" s="13"/>
     </row>
-    <row r="53" spans="1:43" ht="24.95" customHeight="1">
+    <row r="53" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>50</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>84</v>
@@ -7859,7 +7928,7 @@
         <v>83</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="13">
@@ -7871,10 +7940,10 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V53" s="16">
         <v>0.03</v>
@@ -7938,26 +8007,28 @@
       <c r="AP53" s="13"/>
       <c r="AQ53" s="13"/>
     </row>
-    <row r="54" spans="1:43" ht="24.95" customHeight="1">
+    <row r="54" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>51</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D54" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>84</v>
@@ -7969,7 +8040,7 @@
         <v>83</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="13">
@@ -7981,10 +8052,10 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V54" s="16">
         <v>3.5999999999999997E-2</v>
@@ -8048,38 +8119,40 @@
       <c r="AP54" s="13"/>
       <c r="AQ54" s="13"/>
     </row>
-    <row r="55" spans="1:43" ht="24.95" customHeight="1">
+    <row r="55" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>52</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="D55" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="13">
@@ -8091,10 +8164,10 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V55" s="16">
         <v>0.03</v>
@@ -8155,25 +8228,27 @@
       <c r="AP55" s="13"/>
       <c r="AQ55" s="13"/>
     </row>
-    <row r="56" spans="1:43" ht="24.95" customHeight="1">
+    <row r="56" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>53</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D56" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -8188,10 +8263,10 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V56" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8255,25 +8330,27 @@
       <c r="AP56" s="13"/>
       <c r="AQ56" s="13"/>
     </row>
-    <row r="57" spans="1:43" ht="24.95" customHeight="1">
+    <row r="57" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>54</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D57" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -8288,10 +8365,10 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V57" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8355,25 +8432,27 @@
       <c r="AP57" s="13"/>
       <c r="AQ57" s="13"/>
     </row>
-    <row r="58" spans="1:43" ht="24.95" customHeight="1">
+    <row r="58" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>55</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D58" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -8388,10 +8467,10 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V58" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8447,25 +8526,27 @@
       <c r="AP58" s="13"/>
       <c r="AQ58" s="13"/>
     </row>
-    <row r="59" spans="1:43" ht="24.95" customHeight="1">
+    <row r="59" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>56</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
+      <c r="C59" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D59" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -8480,10 +8561,10 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V59" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8539,25 +8620,27 @@
       <c r="AP59" s="13"/>
       <c r="AQ59" s="13"/>
     </row>
-    <row r="60" spans="1:43" ht="24.95" customHeight="1">
+    <row r="60" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>57</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="D60" s="7" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -8573,10 +8656,10 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V60" s="16">
         <v>0.03</v>
@@ -8632,25 +8715,27 @@
       <c r="AP60" s="13"/>
       <c r="AQ60" s="13"/>
     </row>
-    <row r="61" spans="1:43" ht="24.95" customHeight="1">
+    <row r="61" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>58</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="D61" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -8665,10 +8750,10 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U61" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V61" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8732,25 +8817,27 @@
       <c r="AP61" s="13"/>
       <c r="AQ61" s="13"/>
     </row>
-    <row r="62" spans="1:43" ht="24.95" customHeight="1">
+    <row r="62" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>59</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D62" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -8765,10 +8852,10 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U62" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V62" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8830,25 +8917,27 @@
       <c r="AP62" s="13"/>
       <c r="AQ62" s="13"/>
     </row>
-    <row r="63" spans="1:43" ht="24.95" customHeight="1">
+    <row r="63" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>60</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D63" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -8863,10 +8952,10 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U63" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V63" s="16">
         <v>8.5999999999999993E-2</v>
@@ -8928,20 +9017,22 @@
       <c r="AP63" s="13"/>
       <c r="AQ63" s="13"/>
     </row>
-    <row r="64" spans="1:43" ht="24.95" customHeight="1">
+    <row r="64" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>61</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="D64" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -8965,10 +9056,10 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U64" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V64" s="16">
         <v>0.03</v>
@@ -9024,25 +9115,27 @@
       <c r="AP64" s="13"/>
       <c r="AQ64" s="13"/>
     </row>
-    <row r="65" spans="1:43" ht="24.95" customHeight="1">
+    <row r="65" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>62</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="D65" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -9057,10 +9150,10 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U65" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V65" s="16">
         <v>0.03</v>
@@ -9119,25 +9212,27 @@
       <c r="AP65" s="13"/>
       <c r="AQ65" s="13"/>
     </row>
-    <row r="66" spans="1:43" ht="24.95" customHeight="1">
+    <row r="66" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>63</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D66" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -9152,10 +9247,10 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V66" s="16">
         <v>8.5999999999999993E-2</v>
@@ -9217,25 +9312,27 @@
       <c r="AP66" s="13"/>
       <c r="AQ66" s="13"/>
     </row>
-    <row r="67" spans="1:43" ht="24.95" customHeight="1">
+    <row r="67" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>64</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="D67" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -9250,10 +9347,10 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V67" s="16">
         <v>3.5999999999999997E-2</v>
@@ -9315,25 +9412,27 @@
       <c r="AP67" s="13"/>
       <c r="AQ67" s="13"/>
     </row>
-    <row r="68" spans="1:43" ht="24.95" customHeight="1">
+    <row r="68" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>65</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
+      <c r="C68" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D68" s="7" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -9348,10 +9447,10 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V68" s="16">
         <v>8.5999999999999993E-2</v>
@@ -9407,25 +9506,27 @@
       <c r="AP68" s="13"/>
       <c r="AQ68" s="13"/>
     </row>
-    <row r="69" spans="1:43" ht="24.95" customHeight="1">
+    <row r="69" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>66</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
+      <c r="C69" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D69" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -9440,10 +9541,10 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U69" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V69" s="16">
         <v>8.5999999999999993E-2</v>
@@ -9505,25 +9606,27 @@
       <c r="AP69" s="13"/>
       <c r="AQ69" s="13"/>
     </row>
-    <row r="70" spans="1:43" ht="24.95" customHeight="1">
+    <row r="70" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>67</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D70" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -9538,10 +9641,10 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V70" s="16">
         <v>8.5999999999999993E-2</v>
@@ -9603,25 +9706,27 @@
       <c r="AP70" s="13"/>
       <c r="AQ70" s="13"/>
     </row>
-    <row r="71" spans="1:43" ht="24.95" customHeight="1">
+    <row r="71" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>68</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
+      <c r="C71" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D71" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -9636,10 +9741,10 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V71" s="16">
         <v>8.5999999999999993E-2</v>
@@ -9695,25 +9800,27 @@
       <c r="AP71" s="13"/>
       <c r="AQ71" s="13"/>
     </row>
-    <row r="72" spans="1:43" ht="24.95" customHeight="1">
+    <row r="72" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>69</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
+      <c r="C72" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="D72" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -9728,10 +9835,10 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V72" s="16">
         <v>0.03</v>
@@ -9785,25 +9892,27 @@
       <c r="AP72" s="13"/>
       <c r="AQ72" s="13"/>
     </row>
-    <row r="73" spans="1:43" ht="24.95" customHeight="1">
+    <row r="73" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>70</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>412</v>
+      </c>
       <c r="D73" s="7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -9818,10 +9927,10 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U73" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V73" s="16">
         <v>3.5999999999999997E-2</v>
@@ -9881,25 +9990,27 @@
       <c r="AP73" s="13"/>
       <c r="AQ73" s="13"/>
     </row>
-    <row r="74" spans="1:43" ht="24.95" customHeight="1">
+    <row r="74" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>71</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D74" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -9914,10 +10025,10 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V74" s="16">
         <v>8.5999999999999993E-2</v>
@@ -9973,25 +10084,27 @@
       <c r="AP74" s="13"/>
       <c r="AQ74" s="13"/>
     </row>
-    <row r="75" spans="1:43" ht="24.95" customHeight="1">
+    <row r="75" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>72</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
+      <c r="C75" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D75" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -10006,10 +10119,10 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V75" s="16">
         <v>8.5999999999999993E-2</v>
@@ -10065,25 +10178,27 @@
       <c r="AP75" s="13"/>
       <c r="AQ75" s="13"/>
     </row>
-    <row r="76" spans="1:43" ht="24.95" customHeight="1">
+    <row r="76" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>73</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
+      <c r="C76" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="D76" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -10098,10 +10213,10 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V76" s="16">
         <v>3.5999999999999997E-2</v>
@@ -10163,25 +10278,27 @@
       <c r="AP76" s="13"/>
       <c r="AQ76" s="13"/>
     </row>
-    <row r="77" spans="1:43" ht="24.95" customHeight="1">
+    <row r="77" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>74</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
+      <c r="C77" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D77" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -10196,10 +10313,10 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V77" s="16">
         <v>8.5999999999999993E-2</v>
@@ -10255,25 +10372,27 @@
       <c r="AP77" s="13"/>
       <c r="AQ77" s="13"/>
     </row>
-    <row r="78" spans="1:43" ht="24.95" customHeight="1">
+    <row r="78" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>75</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
+      <c r="C78" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D78" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -10288,10 +10407,10 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U78" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V78" s="16">
         <v>8.5999999999999993E-2</v>
@@ -10347,25 +10466,27 @@
       <c r="AP78" s="13"/>
       <c r="AQ78" s="13"/>
     </row>
-    <row r="79" spans="1:43" ht="24.95" customHeight="1">
+    <row r="79" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>76</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
+      <c r="C79" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D79" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -10380,10 +10501,10 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U79" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V79" s="16">
         <v>8.5999999999999993E-2</v>
@@ -10443,25 +10564,27 @@
       <c r="AP79" s="13"/>
       <c r="AQ79" s="13"/>
     </row>
-    <row r="80" spans="1:43" ht="24.95" customHeight="1">
+    <row r="80" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>77</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="7" t="s">
+        <v>413</v>
+      </c>
       <c r="D80" s="7" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -10476,10 +10599,10 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U80" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V80" s="16">
         <v>3.5999999999999997E-2</v>
@@ -10539,25 +10662,27 @@
       <c r="AP80" s="13"/>
       <c r="AQ80" s="13"/>
     </row>
-    <row r="81" spans="1:43" ht="24.95" customHeight="1">
+    <row r="81" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>78</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="D81" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -10572,10 +10697,10 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
       <c r="T81" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U81" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V81" s="16">
         <v>8.5999999999999993E-2</v>
@@ -10631,25 +10756,27 @@
       <c r="AP81" s="13"/>
       <c r="AQ81" s="13"/>
     </row>
-    <row r="82" spans="1:43" ht="24.95" customHeight="1">
+    <row r="82" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>79</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
+      <c r="C82" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D82" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -10664,10 +10791,10 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U82" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V82" s="16">
         <v>8.5999999999999993E-2</v>
@@ -10723,25 +10850,27 @@
       <c r="AP82" s="13"/>
       <c r="AQ82" s="13"/>
     </row>
-    <row r="83" spans="1:43" ht="24.95" customHeight="1">
+    <row r="83" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>80</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="D83" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -10756,10 +10885,10 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U83" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V83" s="16">
         <v>0.03</v>
@@ -10819,25 +10948,27 @@
       <c r="AP83" s="13"/>
       <c r="AQ83" s="13"/>
     </row>
-    <row r="84" spans="1:43" ht="24.95" customHeight="1">
+    <row r="84" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>81</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
+      <c r="C84" s="7" t="s">
+        <v>413</v>
+      </c>
       <c r="D84" s="7" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -10852,10 +10983,10 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U84" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V84" s="16">
         <v>3.5999999999999997E-2</v>
@@ -10917,25 +11048,27 @@
       <c r="AP84" s="13"/>
       <c r="AQ84" s="13"/>
     </row>
-    <row r="85" spans="1:43" ht="24.95" customHeight="1">
+    <row r="85" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>82</v>
       </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D85" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -10950,10 +11083,10 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U85" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V85" s="16">
         <v>8.5999999999999993E-2</v>
@@ -11009,25 +11142,27 @@
       <c r="AP85" s="13"/>
       <c r="AQ85" s="13"/>
     </row>
-    <row r="86" spans="1:43" ht="24.95" customHeight="1">
+    <row r="86" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>83</v>
       </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
+      <c r="C86" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="D86" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -11042,10 +11177,10 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
       <c r="T86" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V86" s="16">
         <v>3.5999999999999997E-2</v>
@@ -11105,25 +11240,27 @@
       <c r="AP86" s="13"/>
       <c r="AQ86" s="13"/>
     </row>
-    <row r="87" spans="1:43" ht="24.95" customHeight="1">
+    <row r="87" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>84</v>
       </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="D87" s="7" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -11138,10 +11275,10 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
       <c r="T87" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U87" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V87" s="16">
         <v>8.5999999999999993E-2</v>
@@ -11197,25 +11334,27 @@
       <c r="AP87" s="13"/>
       <c r="AQ87" s="13"/>
     </row>
-    <row r="88" spans="1:43" ht="24.95" customHeight="1">
+    <row r="88" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>85</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="D88" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
@@ -11230,10 +11369,10 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
       <c r="T88" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V88" s="16">
         <v>3.5999999999999997E-2</v>
@@ -11307,14 +11446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
@@ -11332,7 +11471,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -11346,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11411,7 +11550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11434,7 +11573,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11457,7 +11596,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11480,7 +11619,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11503,7 +11642,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11526,7 +11665,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11549,7 +11688,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11572,7 +11711,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11595,7 +11734,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11618,7 +11757,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11641,7 +11780,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11664,7 +11803,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11687,7 +11826,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11710,7 +11849,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11733,7 +11872,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11756,7 +11895,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11779,7 +11918,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11802,7 +11941,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11825,7 +11964,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11848,7 +11987,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11871,7 +12010,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11894,7 +12033,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11917,7 +12056,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11940,7 +12079,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11963,7 +12102,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11986,7 +12125,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12009,7 +12148,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -12032,7 +12171,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -12055,7 +12194,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -12078,7 +12217,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -12101,7 +12240,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12124,7 +12263,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -12147,7 +12286,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -12170,7 +12309,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12193,7 +12332,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12216,7 +12355,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12239,7 +12378,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12269,16 +12408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -12290,12 +12429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
